--- a/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H2">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I2">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J2">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N2">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O2">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P2">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q2">
-        <v>3.174785876108349</v>
+        <v>3.533810023425</v>
       </c>
       <c r="R2">
-        <v>3.174785876108349</v>
+        <v>14.1352400937</v>
       </c>
       <c r="S2">
-        <v>0.0002851476673364439</v>
+        <v>0.000242349283646013</v>
       </c>
       <c r="T2">
-        <v>0.0002851476673364439</v>
+        <v>0.0001416193904955408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H3">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I3">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J3">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N3">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O3">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P3">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q3">
-        <v>228.2414100851095</v>
+        <v>244.4991066856249</v>
       </c>
       <c r="R3">
-        <v>228.2414100851095</v>
+        <v>1466.99464011375</v>
       </c>
       <c r="S3">
-        <v>0.02049980950372874</v>
+        <v>0.01676778971268004</v>
       </c>
       <c r="T3">
-        <v>0.02049980950372874</v>
+        <v>0.01469765532215683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H4">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I4">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J4">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N4">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O4">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P4">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q4">
-        <v>319.7295060777155</v>
+        <v>326.1652531944125</v>
       </c>
       <c r="R4">
-        <v>319.7295060777155</v>
+        <v>1956.991519166475</v>
       </c>
       <c r="S4">
-        <v>0.02871693600591743</v>
+        <v>0.02236846772687411</v>
       </c>
       <c r="T4">
-        <v>0.02871693600591743</v>
+        <v>0.01960687928271002</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H5">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I5">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J5">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N5">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O5">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P5">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q5">
-        <v>242.4947754843946</v>
+        <v>251.343205068175</v>
       </c>
       <c r="R5">
-        <v>242.4947754843946</v>
+        <v>1508.05923040905</v>
       </c>
       <c r="S5">
-        <v>0.02177999470484289</v>
+        <v>0.01723715912677385</v>
       </c>
       <c r="T5">
-        <v>0.02177999470484289</v>
+        <v>0.01510907686222402</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H6">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I6">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J6">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N6">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O6">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P6">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q6">
-        <v>8.606005215723078</v>
+        <v>10.945487090725</v>
       </c>
       <c r="R6">
-        <v>8.606005215723078</v>
+        <v>65.67292254435002</v>
       </c>
       <c r="S6">
-        <v>0.0007729599437921137</v>
+        <v>0.000750643339061825</v>
       </c>
       <c r="T6">
-        <v>0.0007729599437921137</v>
+        <v>0.000657969670210053</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.73552341187032</v>
+        <v>1.7502375</v>
       </c>
       <c r="H7">
-        <v>1.73552341187032</v>
+        <v>3.500475</v>
       </c>
       <c r="I7">
-        <v>0.07672506295000459</v>
+        <v>0.06096295440307654</v>
       </c>
       <c r="J7">
-        <v>0.07672506295000459</v>
+        <v>0.05231488010959406</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N7">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O7">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P7">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q7">
-        <v>51.99738491213809</v>
+        <v>52.44293416456875</v>
       </c>
       <c r="R7">
-        <v>51.99738491213809</v>
+        <v>209.771736658275</v>
       </c>
       <c r="S7">
-        <v>0.004670215124386981</v>
+        <v>0.003596545214040706</v>
       </c>
       <c r="T7">
-        <v>0.004670215124386981</v>
+        <v>0.002101679581797593</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H8">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J8">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N8">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O8">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P8">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q8">
-        <v>5.046661267904978</v>
+        <v>6.457539050352</v>
       </c>
       <c r="R8">
-        <v>5.046661267904978</v>
+        <v>38.745234302112</v>
       </c>
       <c r="S8">
-        <v>0.000453272675555765</v>
+        <v>0.0004428591103072853</v>
       </c>
       <c r="T8">
-        <v>0.000453272675555765</v>
+        <v>0.000388184171623486</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H9">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J9">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N9">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O9">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P9">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q9">
-        <v>362.8141011577401</v>
+        <v>446.7876084827999</v>
       </c>
       <c r="R9">
-        <v>362.8141011577401</v>
+        <v>4021.0884763452</v>
       </c>
       <c r="S9">
-        <v>0.03258663691319996</v>
+        <v>0.03064076906793571</v>
       </c>
       <c r="T9">
-        <v>0.03258663691319996</v>
+        <v>0.04028683597687577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H10">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J10">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N10">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O10">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P10">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q10">
-        <v>508.2442021276424</v>
+        <v>596.0209647403441</v>
       </c>
       <c r="R10">
-        <v>508.2442021276424</v>
+        <v>5364.188682663096</v>
       </c>
       <c r="S10">
-        <v>0.04564863720876128</v>
+        <v>0.04087521765044697</v>
       </c>
       <c r="T10">
-        <v>0.04564863720876128</v>
+        <v>0.05374320681545464</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H11">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J11">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N11">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O11">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P11">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q11">
-        <v>385.471347946945</v>
+        <v>459.294232290192</v>
       </c>
       <c r="R11">
-        <v>385.471347946945</v>
+        <v>4133.648090611729</v>
       </c>
       <c r="S11">
-        <v>0.03462162803459408</v>
+        <v>0.03149847542466113</v>
       </c>
       <c r="T11">
-        <v>0.03462162803459408</v>
+        <v>0.04141455817056837</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H12">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J12">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N12">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O12">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P12">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q12">
-        <v>13.68016454918097</v>
+        <v>20.00133279518401</v>
       </c>
       <c r="R12">
-        <v>13.68016454918097</v>
+        <v>180.011995156656</v>
       </c>
       <c r="S12">
-        <v>0.001228702395123211</v>
+        <v>0.001371694755164087</v>
       </c>
       <c r="T12">
-        <v>0.001228702395123211</v>
+        <v>0.001803520058165411</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.7587998447834</v>
+        <v>3.198312</v>
       </c>
       <c r="H13">
-        <v>2.7587998447834</v>
+        <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1219626830210029</v>
+        <v>0.1114011947651748</v>
       </c>
       <c r="J13">
-        <v>0.1219626830210029</v>
+        <v>0.1433970893947902</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N13">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O13">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P13">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q13">
-        <v>82.65539746891528</v>
+        <v>95.832060308244</v>
       </c>
       <c r="R13">
-        <v>82.65539746891528</v>
+        <v>574.992361849464</v>
       </c>
       <c r="S13">
-        <v>0.007423805793768576</v>
+        <v>0.006572178756659573</v>
       </c>
       <c r="T13">
-        <v>0.007423805793768576</v>
+        <v>0.005760784202102479</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H14">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I14">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J14">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N14">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O14">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P14">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q14">
-        <v>4.557895839244653</v>
+        <v>5.178085079504666</v>
       </c>
       <c r="R14">
-        <v>4.557895839244653</v>
+        <v>31.068510477028</v>
       </c>
       <c r="S14">
-        <v>0.0004093735506081548</v>
+        <v>0.0003551139425598774</v>
       </c>
       <c r="T14">
-        <v>0.0004093735506081548</v>
+        <v>0.0003112719337057487</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H15">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I15">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J15">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N15">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O15">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P15">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q15">
-        <v>327.6758225488433</v>
+        <v>358.2640741547277</v>
       </c>
       <c r="R15">
-        <v>327.6758225488433</v>
+        <v>3224.376667392549</v>
       </c>
       <c r="S15">
-        <v>0.0294306451170455</v>
+        <v>0.02456981024784936</v>
       </c>
       <c r="T15">
-        <v>0.0294306451170455</v>
+        <v>0.03230466941751455</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H16">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I16">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J16">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N16">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O16">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P16">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q16">
-        <v>459.0211252992336</v>
+        <v>477.9293226923222</v>
       </c>
       <c r="R16">
-        <v>459.0211252992336</v>
+        <v>4301.363904230899</v>
       </c>
       <c r="S16">
-        <v>0.04122760029966791</v>
+        <v>0.03277647304753781</v>
       </c>
       <c r="T16">
-        <v>0.04122760029966791</v>
+        <v>0.0430948841603474</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H17">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I17">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J17">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N17">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O17">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P17">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q17">
-        <v>348.1387316658102</v>
+        <v>368.2927184458536</v>
       </c>
       <c r="R17">
-        <v>348.1387316658102</v>
+        <v>3314.634466012682</v>
       </c>
       <c r="S17">
-        <v>0.03126854884640606</v>
+        <v>0.02525757635405884</v>
       </c>
       <c r="T17">
-        <v>0.03126854884640606</v>
+        <v>0.03320895221308938</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H18">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I18">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J18">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N18">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O18">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P18">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q18">
-        <v>12.35525068334509</v>
+        <v>16.03840133360156</v>
       </c>
       <c r="R18">
-        <v>12.35525068334509</v>
+        <v>144.345612002414</v>
       </c>
       <c r="S18">
-        <v>0.001109703472673702</v>
+        <v>0.001099916251371766</v>
       </c>
       <c r="T18">
-        <v>0.001109703472673702</v>
+        <v>0.001446182552045836</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.49161211072663</v>
+        <v>2.564619666666667</v>
       </c>
       <c r="H19">
-        <v>2.49161211072663</v>
+        <v>7.693859</v>
       </c>
       <c r="I19">
-        <v>0.1101506869541319</v>
+        <v>0.0893289006778985</v>
       </c>
       <c r="J19">
-        <v>0.1101506869541319</v>
+        <v>0.1149853408937705</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N19">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O19">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P19">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q19">
-        <v>74.6502830714208</v>
+        <v>76.84453129141517</v>
       </c>
       <c r="R19">
-        <v>74.6502830714208</v>
+        <v>461.067187748491</v>
       </c>
       <c r="S19">
-        <v>0.006704815667730535</v>
+        <v>0.005270010834520843</v>
       </c>
       <c r="T19">
-        <v>0.006704815667730535</v>
+        <v>0.004619380617067584</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H20">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I20">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J20">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N20">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O20">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P20">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q20">
-        <v>4.492169990526499</v>
+        <v>5.32272011273</v>
       </c>
       <c r="R20">
-        <v>4.492169990526499</v>
+        <v>31.93632067638</v>
       </c>
       <c r="S20">
-        <v>0.0004034702950258718</v>
+        <v>0.0003650330373781959</v>
       </c>
       <c r="T20">
-        <v>0.0004034702950258718</v>
+        <v>0.0003199664270913135</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H21">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I21">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J21">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N21">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O21">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P21">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q21">
-        <v>322.950665963209</v>
+        <v>368.2711589115833</v>
       </c>
       <c r="R21">
-        <v>322.950665963209</v>
+        <v>3314.44043020425</v>
       </c>
       <c r="S21">
-        <v>0.02900624881733516</v>
+        <v>0.02525609779758537</v>
       </c>
       <c r="T21">
-        <v>0.02900624881733516</v>
+        <v>0.03320700819001355</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H22">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I22">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J22">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N22">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O22">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P22">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q22">
-        <v>452.4019408983777</v>
+        <v>491.2789147530184</v>
       </c>
       <c r="R22">
-        <v>452.4019408983777</v>
+        <v>4421.510232777166</v>
       </c>
       <c r="S22">
-        <v>0.04063308934200689</v>
+        <v>0.03369199030834987</v>
       </c>
       <c r="T22">
-        <v>0.04063308934200689</v>
+        <v>0.04429861679638396</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H23">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I23">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J23">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N23">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O23">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P23">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q23">
-        <v>343.1184954828374</v>
+        <v>378.5799247684967</v>
       </c>
       <c r="R23">
-        <v>343.1184954828374</v>
+        <v>3407.21932291647</v>
       </c>
       <c r="S23">
-        <v>0.03081764957542674</v>
+        <v>0.02596307468772279</v>
       </c>
       <c r="T23">
-        <v>0.03081764957542674</v>
+        <v>0.03413654954549516</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H24">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I24">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J24">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N24">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O24">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P24">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q24">
-        <v>12.17708528292141</v>
+        <v>16.48638831607667</v>
       </c>
       <c r="R24">
-        <v>12.17708528292141</v>
+        <v>148.37749484469</v>
       </c>
       <c r="S24">
-        <v>0.001093701307389677</v>
+        <v>0.0011306392737091</v>
       </c>
       <c r="T24">
-        <v>0.001093701307389677</v>
+        <v>0.001486577535568405</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.45568252250658</v>
+        <v>2.636255</v>
       </c>
       <c r="H25">
-        <v>2.45568252250658</v>
+        <v>7.908765000000001</v>
       </c>
       <c r="I25">
-        <v>0.1085622901056098</v>
+        <v>0.09182404865618671</v>
       </c>
       <c r="J25">
-        <v>0.1085622901056098</v>
+        <v>0.1181971283297135</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N25">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O25">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P25">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q25">
-        <v>73.57380976334873</v>
+        <v>78.9909640297475</v>
       </c>
       <c r="R25">
-        <v>73.57380976334873</v>
+        <v>473.945784178485</v>
       </c>
       <c r="S25">
-        <v>0.006608130768425465</v>
+        <v>0.005417213551441381</v>
       </c>
       <c r="T25">
-        <v>0.006608130768425465</v>
+        <v>0.00474840983516107</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H26">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I26">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J26">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N26">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O26">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P26">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q26">
-        <v>1.650346166882959</v>
+        <v>2.206326649822</v>
       </c>
       <c r="R26">
-        <v>1.650346166882959</v>
+        <v>13.237959898932</v>
       </c>
       <c r="S26">
-        <v>0.0001482280626626603</v>
+        <v>0.000151310251408261</v>
       </c>
       <c r="T26">
-        <v>0.0001482280626626603</v>
+        <v>0.0001326296405199886</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H27">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I27">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J27">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N27">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O27">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P27">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q27">
-        <v>118.6465326977116</v>
+        <v>152.6524887762166</v>
       </c>
       <c r="R27">
-        <v>118.6465326977116</v>
+        <v>1373.87239898595</v>
       </c>
       <c r="S27">
-        <v>0.01065639805534871</v>
+        <v>0.01046893326366228</v>
       </c>
       <c r="T27">
-        <v>0.01065639805534871</v>
+        <v>0.0137646739972782</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H28">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I28">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J28">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N28">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O28">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P28">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q28">
-        <v>166.2047096673966</v>
+        <v>203.6405708282257</v>
       </c>
       <c r="R28">
-        <v>166.2047096673966</v>
+        <v>1832.765137454031</v>
       </c>
       <c r="S28">
-        <v>0.01492789974235467</v>
+        <v>0.01396570447600155</v>
       </c>
       <c r="T28">
-        <v>0.01492789974235467</v>
+        <v>0.01836226905006008</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H29">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I29">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J29">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N29">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O29">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P29">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q29">
-        <v>126.0558471742919</v>
+        <v>156.9255868078953</v>
       </c>
       <c r="R29">
-        <v>126.0558471742919</v>
+        <v>1412.330281271058</v>
       </c>
       <c r="S29">
-        <v>0.01132187560942831</v>
+        <v>0.01076198304281334</v>
       </c>
       <c r="T29">
-        <v>0.01132187560942831</v>
+        <v>0.01414997922116284</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H30">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I30">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J30">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N30">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O30">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P30">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q30">
-        <v>4.47365216874192</v>
+        <v>6.833791206507335</v>
       </c>
       <c r="R30">
-        <v>4.47365216874192</v>
+        <v>61.504120858566</v>
       </c>
       <c r="S30">
-        <v>0.0004018070919337323</v>
+        <v>0.0004686625462334013</v>
       </c>
       <c r="T30">
-        <v>0.0004018070919337323</v>
+        <v>0.0006162029120988382</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.902175618163821</v>
+        <v>1.092757</v>
       </c>
       <c r="H31">
-        <v>0.902175618163821</v>
+        <v>3.278271</v>
       </c>
       <c r="I31">
-        <v>0.03988392240758237</v>
+        <v>0.03806208881060012</v>
       </c>
       <c r="J31">
-        <v>0.03988392240758237</v>
+        <v>0.04899402347731637</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N31">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O31">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P31">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q31">
-        <v>27.0297551477315</v>
+        <v>32.7426325906465</v>
       </c>
       <c r="R31">
-        <v>27.0297551477315</v>
+        <v>196.455795543879</v>
       </c>
       <c r="S31">
-        <v>0.002427713845854288</v>
+        <v>0.00224549523048128</v>
       </c>
       <c r="T31">
-        <v>0.002427713845854288</v>
+        <v>0.001968268656196424</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H32">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I32">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J32">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.82929590830871</v>
+        <v>2.019046</v>
       </c>
       <c r="N32">
-        <v>1.82929590830871</v>
+        <v>4.038092</v>
       </c>
       <c r="O32">
-        <v>0.003716486586948142</v>
+        <v>0.003975353327590414</v>
       </c>
       <c r="P32">
-        <v>0.003716486586948142</v>
+        <v>0.002707057536954368</v>
       </c>
       <c r="Q32">
-        <v>22.45687362331994</v>
+        <v>35.268034290435</v>
       </c>
       <c r="R32">
-        <v>22.45687362331994</v>
+        <v>141.07213716174</v>
       </c>
       <c r="S32">
-        <v>0.002016994335759247</v>
+        <v>0.002418687702290782</v>
       </c>
       <c r="T32">
-        <v>0.002016994335759247</v>
+        <v>0.00141338597351829</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H33">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I33">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J33">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>131.51157081721</v>
+        <v>139.6948166666666</v>
       </c>
       <c r="N33">
-        <v>131.51157081721</v>
+        <v>419.0844499999999</v>
       </c>
       <c r="O33">
-        <v>0.267185307063049</v>
+        <v>0.2750488370661026</v>
       </c>
       <c r="P33">
-        <v>0.267185307063049</v>
+        <v>0.2809459811695414</v>
       </c>
       <c r="Q33">
-        <v>1614.467463919989</v>
+        <v>2440.143307480874</v>
       </c>
       <c r="R33">
-        <v>1614.467463919989</v>
+        <v>14640.85984488525</v>
       </c>
       <c r="S33">
-        <v>0.1450055686563909</v>
+        <v>0.1673454369763898</v>
       </c>
       <c r="T33">
-        <v>0.1450055686563909</v>
+        <v>0.1466851382657025</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H34">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I34">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J34">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>184.226558910636</v>
+        <v>186.3548536666667</v>
       </c>
       <c r="N34">
-        <v>184.226558910636</v>
+        <v>559.064561</v>
       </c>
       <c r="O34">
-        <v>0.3742836421604488</v>
+        <v>0.3669190239530987</v>
       </c>
       <c r="P34">
-        <v>0.3742836421604488</v>
+        <v>0.3747858972750337</v>
       </c>
       <c r="Q34">
-        <v>2261.609252349062</v>
+        <v>3255.185552634758</v>
       </c>
       <c r="R34">
-        <v>2261.609252349062</v>
+        <v>19531.11331580854</v>
       </c>
       <c r="S34">
-        <v>0.2031294795617407</v>
+        <v>0.2232411707438884</v>
       </c>
       <c r="T34">
-        <v>0.2031294795617407</v>
+        <v>0.1956800411700775</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H35">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I35">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J35">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.724289413685</v>
+        <v>143.6051993333333</v>
       </c>
       <c r="N35">
-        <v>139.724289413685</v>
+        <v>430.815598</v>
       </c>
       <c r="O35">
-        <v>0.2838706658218726</v>
+        <v>0.2827480934208787</v>
       </c>
       <c r="P35">
-        <v>0.2838706658218726</v>
+        <v>0.2888103122968479</v>
       </c>
       <c r="Q35">
-        <v>1715.288759582016</v>
+        <v>2508.448591251885</v>
       </c>
       <c r="R35">
-        <v>1715.288759582016</v>
+        <v>15050.69154751131</v>
       </c>
       <c r="S35">
-        <v>0.1540609690511745</v>
+        <v>0.1720298247848487</v>
       </c>
       <c r="T35">
-        <v>0.1540609690511745</v>
+        <v>0.1507911962843081</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H36">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I36">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J36">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.95873761014186</v>
+        <v>6.253715333333335</v>
       </c>
       <c r="N36">
-        <v>4.95873761014186</v>
+        <v>18.761146</v>
       </c>
       <c r="O36">
-        <v>0.01007441263744271</v>
+        <v>0.01231310631861279</v>
       </c>
       <c r="P36">
-        <v>0.01007441263744271</v>
+        <v>0.0125771036621259</v>
       </c>
       <c r="Q36">
-        <v>60.87464763703319</v>
+        <v>109.237851350895</v>
       </c>
       <c r="R36">
-        <v>60.87464763703319</v>
+        <v>655.4271081053701</v>
       </c>
       <c r="S36">
-        <v>0.005467538426530276</v>
+        <v>0.007491550153072606</v>
       </c>
       <c r="T36">
-        <v>0.005467538426530276</v>
+        <v>0.006566650934037359</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>12.2762389186573</v>
+        <v>17.4676725</v>
       </c>
       <c r="H37">
-        <v>12.2762389186573</v>
+        <v>34.935345</v>
       </c>
       <c r="I37">
-        <v>0.5427153545616686</v>
+        <v>0.6084208126870634</v>
       </c>
       <c r="J37">
-        <v>0.5427153545616686</v>
+        <v>0.5221115377948153</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.9606358269187</v>
+        <v>29.9633245</v>
       </c>
       <c r="N37">
-        <v>29.9606358269187</v>
+        <v>59.926649</v>
       </c>
       <c r="O37">
-        <v>0.06086948573023884</v>
+        <v>0.05899558591371687</v>
       </c>
       <c r="P37">
-        <v>0.06086948573023884</v>
+        <v>0.04017364805949665</v>
       </c>
       <c r="Q37">
-        <v>367.8039235661376</v>
+        <v>523.3895393772262</v>
       </c>
       <c r="R37">
-        <v>367.8039235661376</v>
+        <v>2093.558157508905</v>
       </c>
       <c r="S37">
-        <v>0.033034804530073</v>
+        <v>0.03589414232657308</v>
       </c>
       <c r="T37">
-        <v>0.033034804530073</v>
+        <v>0.0209751251671715</v>
       </c>
     </row>
   </sheetData>
